--- a/GATEWAY/S1#111#FRAMESRLXX/FRAMESRL/GOMED-PEDIATOTEM/1.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111#FRAMESRLXX/FRAMESRL/GOMED-PEDIATOTEM/1.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\39339\Desktop\FSE\S1#111#FRAMESRLXX\FRAMESRL\GOMED-PEDIATOTEM\1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1987D45-98D8-4094-A665-4939FC51396B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E97C6AC-6559-4048-99CE-BD975F56FC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1779,34 +1779,34 @@
     <t>Frame S.r.l.</t>
   </si>
   <si>
-    <t>2025-06-19T13:30:35.94120470</t>
-  </si>
-  <si>
-    <t>2025-06-19T13:30:35.308092200</t>
-  </si>
-  <si>
-    <t>d9e92cd6f54e302c96bb1122b68a2f8d</t>
-  </si>
-  <si>
-    <t>4427644f730a89f779103946d9231879</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.3.120.4.4.15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225.d30175944e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.3.120.4.4.15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225.da53ade124^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-06-20T10:16:02.420388500</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.3.120.4.4.15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225.977b85801e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>be37a1f39ecf5b96c23ca273cb599179</t>
-  </si>
-  <si>
     <t>subject_application_id:GOMED-PEDIATOTEM</t>
+  </si>
+  <si>
+    <t>82f1f023ba5dab3da9f752a0d9bb740c</t>
+  </si>
+  <si>
+    <t>2025-06-26T17:12:22.827649400</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.3.120.4.4.15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225.12da91777c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-06-26T17:12:23.553906200</t>
+  </si>
+  <si>
+    <t>3ff4b041f204ed8a115f7cdcd5f24c76</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.3.120.4.4.15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225.401649b407^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.3.120.4.4.15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225.f405dc5d99^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6045d6dfd329727f92577dfe7f6db5a1</t>
+  </si>
+  <si>
+    <t>2025-06-26T17:12:24.181275800</t>
   </si>
 </sst>
 </file>
@@ -3876,10 +3876,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I132" sqref="I132"/>
+      <selection pane="bottomRight" activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="56" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="D3" s="48"/>
       <c r="F3" s="6"/>
@@ -8749,16 +8749,16 @@
         <v>344</v>
       </c>
       <c r="F132" s="37">
-        <v>45828</v>
+        <v>45834</v>
       </c>
       <c r="G132" s="37" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H132" s="37" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="I132" s="42" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="J132" s="38" t="s">
         <v>64</v>
@@ -10033,16 +10033,16 @@
         <v>243</v>
       </c>
       <c r="F164" s="37">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="G164" s="37" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H164" s="37" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="I164" s="42" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J164" s="38" t="s">
         <v>64</v>
@@ -10082,16 +10082,16 @@
         <v>244</v>
       </c>
       <c r="F165" s="37">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="G165" s="37" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="H165" s="37" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="I165" s="42" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="J165" s="38" t="s">
         <v>64</v>
@@ -17424,6 +17424,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17681,28 +17702,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17721,31 +17746,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/S1#111#FRAMESRLXX/FRAMESRL/GOMED-PEDIATOTEM/1.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111#FRAMESRLXX/FRAMESRL/GOMED-PEDIATOTEM/1.0/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\39339\Desktop\FSE\S1#111#FRAMESRLXX\FRAMESRL\GOMED-PEDIATOTEM\1.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sviluppo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E97C6AC-6559-4048-99CE-BD975F56FC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE25E97-F29A-46D8-8F0A-53F1783116E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Summary!$A$1:$G$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$192</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$193</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="474">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -842,12 +842,6 @@
     <t>VALIDAZIONE_CDA2_RSA_CT23_KO</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT1</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT2</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_PSS_CT6_KO</t>
   </si>
   <si>
@@ -933,12 +927,6 @@
     <t>RAZIONALE DI APPLICABILITA' - ALTRO</t>
   </si>
   <si>
-    <t xml:space="preserve"> PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)</t>
-  </si>
-  <si>
     <t>Razionale di Applicabilità</t>
   </si>
   <si>
@@ -963,24 +951,7 @@
     <t>Altro (specificare)</t>
   </si>
   <si>
-    <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
-"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", " PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
-  </si>
-  <si>
     <t>Versione:</t>
-  </si>
-  <si>
-    <t>444, 445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Profilo Sanitario Sintetico dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Profilo Sanitario Sintetico dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
   </si>
   <si>
     <r>
@@ -997,6 +968,706 @@
     </r>
   </si>
   <si>
+    <t>5) Se il test NON è applicabile la colonna APPLICABILITA' riporterà NO e dovrà essere compilata esclusivamente la colonna RAZIONALE DI APPLICABILITA' con le motivazioni per cui il test non è applicabile. Il campo è valorizzabile tramite selezione da menù a tendina (campo/sezione non gestito/a in modo strutturato dall’applicativo;c ampo obbligatorio; campo valorizzato di default; campo valorizzato in automatico tramite dati recuperati da servizi esterni; campo valorizzabile tramite selezione da un set di valori ammessi; l’applicativo effettua controlli preventivi sul dato inserito; altro (specificare)). Nel caso in cui si selezioni l'opzione "Altro (specificare)" è necessario compilare la colonna RAZIONALE DI "APPLICABILITA' - ALTRO" con le motivazioni per le quali il test non è applicabile.</t>
+  </si>
+  <si>
+    <t>6) La colonna TEST AUTOCERTIFICATO non deve mai essere compilata dal fornitore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Necessario compilare sempre le righe 2,3,4,5 con rispettivamente:
+Nome fornitore dell'applicativo
+nome applicazione: subject_application_id
+Nome fornitore: subject_application_vendor
+versione applicazione: subject_application_version
+</t>
+  </si>
+  <si>
+    <t>RAP</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT1</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT2</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT3</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_RAP_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAP_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_RAP_TIMEOUT</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT12_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT13_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT14_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT15_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT17_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT18_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT20_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT21_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT22_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT23_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>TIPO DOCUMENTO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 29" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST- OK" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST OK - HLA" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>448, 449</t>
+  </si>
+  <si>
+    <t>450, 451</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>454, 455</t>
+  </si>
+  <si>
+    <t>456, 457</t>
+  </si>
+  <si>
+    <t>458, 459</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT24</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT17</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT18</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT18</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT19</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 19" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT4</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT20</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 20" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT30</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT31</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 31" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 30" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT24</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT25</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT26_KO</t>
+  </si>
+  <si>
+    <t>4, 452</t>
+  </si>
+  <si>
+    <t>417, 418, 419, 460</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT24_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT32_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 32" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT20_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT21_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT19_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT27_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT22_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT25_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT18</t>
+  </si>
+  <si>
+    <t>29,37,45,64,66,67,68,69,70,71,72,73,74, 467</t>
+  </si>
+  <si>
+    <t>33,41,49,95,97,98,99,100,101,102,103,104,105,106, 464</t>
+  </si>
+  <si>
+    <t>34,42,50,108,110,111,112,113,114,115,116,117,118,119,120,121, 465</t>
+  </si>
+  <si>
+    <t>35,43,51,123,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146, 463</t>
+  </si>
+  <si>
+    <t>30,38,46,175,177,178,179,180,181,182,183,184,185,186,187,188,189,190, 469</t>
+  </si>
+  <si>
+    <t>423,424,425,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,448,449, 470</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO.xlsx" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT25</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT7_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT26</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 26" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>471, 472</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT28_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT27_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT19_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>28,36,44,53,55,56,57,59,60,61,62, 466, 473</t>
+  </si>
+  <si>
+    <t>31,39,47,76,78,79,80,81,83,84,85,86,87,88,89,90,91,92,93, 462, 474</t>
+  </si>
+  <si>
+    <t>32,40,48,152,154,155,156,157,159,160,161,162,163,164,165,166,167,168,169, 461, 468, 475</t>
+  </si>
+  <si>
+    <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
+"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", " PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE SERVIZIO DI VALIDAZIONE DEL GATEWAY A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
+  </si>
+  <si>
+    <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
+"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE SERVIZIO DI VALIDAZIONE DEL GATEWAY A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
+  </si>
+  <si>
     <t>4) Se il test è applicabile la colonna APPLICABILITA' deve essere compilata con SI e dovranno essere valorizzate:
     DATA ESECUZIONE, 
     TIMESTAMP, 
@@ -1007,710 +1678,47 @@
     MESSAGGIO DI ERRORE da compilare con il messaggio di errore visualizzato dall’applicativo, solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT visibili all'utente (colonna ERRORE VISIBILE A UTENTE (SI/NO)=SI)
     GESTITO IN BACKOFFICE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
     PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO A FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-   INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO  (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+  INVIO MANUALE DEL DOCUMENTO AL FSE SERVIZIO DI VALIDAZIONE DEL GATEWAY A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO  (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
     GESTIONE ERRORE da compilare con la procedura che viene adottata per la gestione dell'errore, solo per i casi KO (ovvero con CASO OK / KO= KO) e per i casi di test di TIMEOUT,  specificando le modalità di invio del documento clinico al FSE a seguito della correzione dell'errore e chiarendo se è possibile per l'utente (medico) proseguire con il processo e produrre il documento. Esclusivamente per i casi di test di TIMEOUT, qualora non fosse prevista una coda di retry e la gestione dell'errore non fossa gestita da un operatore di backoffice, indicare le modalità attraverso cui è reso esplicito all’utente (medico) di effettuare nuovi tentativi di invio verso il FSE fino al ripristino del servizio di validazione.</t>
   </si>
   <si>
-    <t>5) Se il test NON è applicabile la colonna APPLICABILITA' riporterà NO e dovrà essere compilata esclusivamente la colonna RAZIONALE DI APPLICABILITA' con le motivazioni per cui il test non è applicabile. Il campo è valorizzabile tramite selezione da menù a tendina (campo/sezione non gestito/a in modo strutturato dall’applicativo;c ampo obbligatorio; campo valorizzato di default; campo valorizzato in automatico tramite dati recuperati da servizi esterni; campo valorizzabile tramite selezione da un set di valori ammessi; l’applicativo effettua controlli preventivi sul dato inserito; altro (specificare)). Nel caso in cui si selezioni l'opzione "Altro (specificare)" è necessario compilare la colonna RAZIONALE DI "APPLICABILITA' - ALTRO" con le motivazioni per le quali il test non è applicabile.</t>
-  </si>
-  <si>
-    <t>6) La colonna TEST AUTOCERTIFICATO non deve mai essere compilata dal fornitore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Necessario compilare sempre le righe 2,3,4,5 con rispettivamente:
-Nome fornitore dell'applicativo
-nome applicazione: subject_application_id
-Nome fornitore: subject_application_vendor
-versione applicazione: subject_application_version
+    <t>PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL SERVIZIO DI VALIDAZIONE DEL GATEWAY A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)</t>
+  </si>
+  <si>
+    <t>INVIO MANUALE DEL DOCUMENTO AL SERVIZIO DI VALIDAZIONE DEL GATEWAY A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT23</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT24</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Profilo Sanitario Sintetico dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 23" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 </t>
   </si>
   <si>
-    <t>RAP</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT1</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT2</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT3</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_RAP_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAP_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_RAP_TIMEOUT</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT12_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT13_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT14_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT15_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT17_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT18_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT20_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT21_KO</t>
-  </si>
-  <si>
-    <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
-"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT22_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT23_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>TIPO DOCUMENTO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+Il Documento CDA2 Profilo Sanitario Sintetico dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 </t>
   </si>
   <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
+    <t>8.2.7</t>
+  </si>
+  <si>
+    <t>476,477,478</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 29" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST- OK" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST OK - HLA" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>448, 449</t>
-  </si>
-  <si>
-    <t>450, 451</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>454, 455</t>
-  </si>
-  <si>
-    <t>456, 457</t>
-  </si>
-  <si>
-    <t>458, 459</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT24</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT17</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT18</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT18</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT19</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 19" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT4</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT20</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 20" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT30</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT31</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 31" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 30" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT24</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT25</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT26_KO</t>
-  </si>
-  <si>
-    <t>4, 452</t>
-  </si>
-  <si>
-    <t>417, 418, 419, 460</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT24_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT32_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 32" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT20_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT21_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT19_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT27_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT22_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT25_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT18</t>
-  </si>
-  <si>
-    <t>29,37,45,64,66,67,68,69,70,71,72,73,74, 467</t>
-  </si>
-  <si>
-    <t>33,41,49,95,97,98,99,100,101,102,103,104,105,106, 464</t>
-  </si>
-  <si>
-    <t>34,42,50,108,110,111,112,113,114,115,116,117,118,119,120,121, 465</t>
-  </si>
-  <si>
-    <t>35,43,51,123,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146, 463</t>
-  </si>
-  <si>
-    <t>30,38,46,175,177,178,179,180,181,182,183,184,185,186,187,188,189,190, 469</t>
-  </si>
-  <si>
-    <t>423,424,425,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,448,449, 470</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO.xlsx" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT25</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT7_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>3) Nel caso in cui tra le tipologie documentali oggetto di accreditamento per l'applicativo figurino PSS, RAP, RAD, RSA, LDO, LAB, VPS, SING_VACC, CERT_VACC i relativi casi di test con id 444, 417, 418, 460, 448, 450, 452,454, 456, 457, 458, 471 che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI)</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT26</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 26" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>471, 472</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT28_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT27_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT19_KO</t>
-  </si>
-  <si>
-    <t>8.2.6</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>28,36,44,53,55,56,57,59,60,61,62, 466, 473</t>
-  </si>
-  <si>
-    <t>31,39,47,76,78,79,80,81,83,84,85,86,87,88,89,90,91,92,93, 462, 474</t>
-  </si>
-  <si>
-    <t>32,40,48,152,154,155,156,157,159,160,161,162,163,164,165,166,167,168,169, 461, 468, 475</t>
+Il Documento CDA2 Profilo Sanitario Sintetico dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. Il "CASO DI TEST 25" si riferisce a un esempio di CDA2 semplice, contenente esclusivamente sezioni ed elementi obbligatori previsti dalle specifiche nazionali (IG HL7 Italia)</t>
+  </si>
+  <si>
+    <t>3) Nel caso in cui tra le tipologie documentali oggetto di accreditamento per l'applicativo figurino PSS, RAP, RAD, RSA, LDO, LAB, VPS, SING_VACC, CERT_VACC i relativi casi di test con id 476*, 417, 418, 460, 448, 450, 452,454, 456, 457, 458, 471 che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI). 
+*) Il test in questione è da intendersi obbligatorio per gli applicativi che si stanno accreditando per la prima volta per PSS; nel caso di applicativi già accreditati, sarà sufficiente sottomettere il caso di test 478 (Fast Track)</t>
   </si>
   <si>
     <t>Il software non consente di omettere dei campi obbligatori del jwt token</t>
@@ -1722,15 +1730,24 @@
     <t>Timeout nella richiesta, server momentaneamente non raggiungibile</t>
   </si>
   <si>
+    <t>Il medico visualizza la notifica di errore a seguito della richiesta. La procedura viene interrotta. Sarà sempre il medico che manualmente dovrà nuovamente reinviare il documento</t>
+  </si>
+  <si>
     <t>Il software converte sempre in maiuscolo i codici fiscali, è impossibile inserire un codice fiscale errato</t>
   </si>
   <si>
+    <t>2025-06-26T17:12:22.827649400</t>
+  </si>
+  <si>
+    <t>82f1f023ba5dab3da9f752a0d9bb740c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.3.120.4.4.15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225.12da91777c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine'</t>
   </si>
   <si>
-    <t>Il medico visualizza la notifica di errore a seguito della richiesta. La procedura viene interrotta. Sarà sempre il medico che manualmente dovrà nuovamente reinviare il documento</t>
-  </si>
-  <si>
     <t>Il medico visualizza la notifica di errore a seguito della richiesta. La procedura viene interrotta.</t>
   </si>
   <si>
@@ -1740,6 +1757,9 @@
     <t>Il software non permette di specificare un campo sesso diverso dai valori ammessi</t>
   </si>
   <si>
+    <t>Elemnto opzionale il software non lo genera l'elemento nell'XML</t>
+  </si>
+  <si>
     <t>Gli elementi act/code sono elementi obbligatori</t>
   </si>
   <si>
@@ -1758,9 +1778,6 @@
     <t>Il software non permette di omettere il grado di parentela</t>
   </si>
   <si>
-    <t>Elemnto opzionale il software non lo genera l'elemento nell'XML</t>
-  </si>
-  <si>
     <t>La data inizio allergia è sempre presente e inserita dal software</t>
   </si>
   <si>
@@ -1770,43 +1787,43 @@
     <t>Il software non permette di omettere o inserire valori diversi per observation/value da quelli specificati nei requisiti</t>
   </si>
   <si>
+    <t>2025-06-26T17:12:23.553906200</t>
+  </si>
+  <si>
+    <t>3ff4b041f204ed8a115f7cdcd5f24c76</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.3.120.4.4.15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225.401649b407^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-06-26T17:12:24.181275800</t>
+  </si>
+  <si>
+    <t>6045d6dfd329727f92577dfe7f6db5a1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.3.120.4.4.15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225.f405dc5d99^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-12-30T11:09:09.820575800</t>
+  </si>
+  <si>
+    <t>156bb5c255d374ca05073a14033801e9"</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.130.4.4.ccfe4b06764983bba0405e3334cc3aea513ddfb399cf6360aee316def813c084.fb330f5ac0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Frame S.r.l.</t>
+  </si>
+  <si>
+    <t>subject_application_id:GOMED-PEDIATOTEM</t>
+  </si>
+  <si>
     <t>subject_application_vendor:FRAMESRL</t>
   </si>
   <si>
     <t>subject_application_version:1.0</t>
-  </si>
-  <si>
-    <t>Frame S.r.l.</t>
-  </si>
-  <si>
-    <t>subject_application_id:GOMED-PEDIATOTEM</t>
-  </si>
-  <si>
-    <t>82f1f023ba5dab3da9f752a0d9bb740c</t>
-  </si>
-  <si>
-    <t>2025-06-26T17:12:22.827649400</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.3.120.4.4.15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225.12da91777c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-06-26T17:12:23.553906200</t>
-  </si>
-  <si>
-    <t>3ff4b041f204ed8a115f7cdcd5f24c76</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.3.120.4.4.15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225.401649b407^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.3.120.4.4.15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225.f405dc5d99^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>6045d6dfd329727f92577dfe7f6db5a1</t>
-  </si>
-  <si>
-    <t>2025-06-26T17:12:24.181275800</t>
   </si>
 </sst>
 </file>
@@ -2283,7 +2300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2402,6 +2419,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2727,7 +2750,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2743,7 +2766,7 @@
     </row>
     <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
@@ -2751,24 +2774,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>423</v>
+    <row r="4" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="300" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>246</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -2866,7 +2889,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3873,13 +3896,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:W752"/>
+  <dimension ref="A1:W750"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B143" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H165" sqref="H165"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3891,9 +3914,7 @@
     <col min="5" max="5" width="104.85546875" customWidth="1"/>
     <col min="6" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
-    <col min="11" max="11" width="47.28515625" customWidth="1"/>
-    <col min="12" max="12" width="60.140625" customWidth="1"/>
-    <col min="13" max="18" width="36.42578125" customWidth="1"/>
+    <col min="11" max="18" width="36.42578125" customWidth="1"/>
     <col min="19" max="19" width="27.140625" customWidth="1"/>
     <col min="20" max="20" width="33.140625" customWidth="1"/>
     <col min="21" max="21" width="36.42578125" customWidth="1"/>
@@ -3923,14 +3944,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49" t="s">
-        <v>458</v>
-      </c>
-      <c r="D2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2" s="50"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3951,14 +3972,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="56" t="s">
-        <v>459</v>
-      </c>
-      <c r="D3" s="48"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="58" t="s">
+        <v>471</v>
+      </c>
+      <c r="D3" s="50"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3979,12 +4000,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="56" t="s">
-        <v>456</v>
-      </c>
-      <c r="D4" s="48"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" s="50"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4006,12 +4027,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56" t="s">
-        <v>457</v>
-      </c>
-      <c r="D5" s="48"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="D5" s="50"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4032,8 +4053,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -4097,7 +4118,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="9"/>
     </row>
-    <row r="9" spans="1:23" s="18" customFormat="1" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" s="18" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>14</v>
       </c>
@@ -4132,7 +4153,7 @@
         <v>24</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M9" s="20" t="s">
         <v>25</v>
@@ -4147,10 +4168,10 @@
         <v>28</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>230</v>
+        <v>428</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>231</v>
+        <v>429</v>
       </c>
       <c r="S9" s="20" t="s">
         <v>29</v>
@@ -4179,10 +4200,10 @@
         <v>35</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
@@ -4279,7 +4300,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="35">
         <v>30</v>
       </c>
@@ -4300,13 +4321,13 @@
       <c r="H13" s="37"/>
       <c r="I13" s="42"/>
       <c r="J13" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L13" s="38" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M13" s="38"/>
       <c r="N13" s="38"/>
@@ -4470,7 +4491,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="35">
         <v>35</v>
       </c>
@@ -4507,7 +4528,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="35">
         <v>36</v>
       </c>
@@ -4544,7 +4565,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="35">
         <v>37</v>
       </c>
@@ -4581,7 +4602,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="35">
         <v>38</v>
       </c>
@@ -4602,13 +4623,13 @@
       <c r="H21" s="37"/>
       <c r="I21" s="42"/>
       <c r="J21" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K21" s="38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
@@ -4823,7 +4844,7 @@
         <v>63</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>240</v>
+        <v>425</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
@@ -4862,7 +4883,7 @@
         <v>65</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>240</v>
+        <v>425</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -4887,7 +4908,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="35">
         <v>46</v>
       </c>
@@ -4901,7 +4922,7 @@
         <v>66</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>240</v>
+        <v>425</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
@@ -4910,7 +4931,9 @@
       <c r="J29" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K29" s="38"/>
+      <c r="K29" s="38" t="s">
+        <v>235</v>
+      </c>
       <c r="L29" s="38"/>
       <c r="M29" s="38" t="s">
         <v>64</v>
@@ -4919,13 +4942,13 @@
         <v>64</v>
       </c>
       <c r="O29" s="38" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P29" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q29" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="R29" s="38" t="s">
         <v>64</v>
@@ -4956,7 +4979,7 @@
         <v>67</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>240</v>
+        <v>425</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
@@ -4995,7 +5018,7 @@
         <v>68</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>240</v>
+        <v>425</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
@@ -5034,7 +5057,7 @@
         <v>69</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>240</v>
+        <v>425</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
@@ -5073,7 +5096,7 @@
         <v>70</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>240</v>
+        <v>425</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
@@ -5112,7 +5135,7 @@
         <v>71</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>240</v>
+        <v>425</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
@@ -5148,10 +5171,10 @@
         <v>35</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
@@ -5447,7 +5470,7 @@
         <v>86</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -5484,7 +5507,7 @@
         <v>87</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -5521,7 +5544,7 @@
         <v>88</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
@@ -5558,7 +5581,7 @@
         <v>89</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
@@ -5595,7 +5618,7 @@
         <v>90</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
@@ -5632,7 +5655,7 @@
         <v>91</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
@@ -5669,7 +5692,7 @@
         <v>92</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
@@ -5706,7 +5729,7 @@
         <v>93</v>
       </c>
       <c r="E50" s="43" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
@@ -5743,7 +5766,7 @@
         <v>94</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
@@ -5780,7 +5803,7 @@
         <v>95</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
@@ -5817,7 +5840,7 @@
         <v>96</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
@@ -5891,7 +5914,7 @@
         <v>99</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
@@ -5928,7 +5951,7 @@
         <v>100</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
@@ -5965,7 +5988,7 @@
         <v>101</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F57" s="37"/>
       <c r="G57" s="37"/>
@@ -6076,7 +6099,7 @@
         <v>106</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
@@ -6113,7 +6136,7 @@
         <v>107</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
@@ -6150,7 +6173,7 @@
         <v>108</v>
       </c>
       <c r="E62" s="43" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
@@ -6187,7 +6210,7 @@
         <v>109</v>
       </c>
       <c r="E63" s="43" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F63" s="37"/>
       <c r="G63" s="37"/>
@@ -6298,7 +6321,7 @@
         <v>114</v>
       </c>
       <c r="E66" s="43" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
@@ -6335,7 +6358,7 @@
         <v>115</v>
       </c>
       <c r="E67" s="43" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
@@ -6372,7 +6395,7 @@
         <v>116</v>
       </c>
       <c r="E68" s="43" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F68" s="37"/>
       <c r="G68" s="37"/>
@@ -6409,7 +6432,7 @@
         <v>117</v>
       </c>
       <c r="E69" s="43" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="F69" s="37"/>
       <c r="G69" s="37"/>
@@ -6446,7 +6469,7 @@
         <v>118</v>
       </c>
       <c r="E70" s="43" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F70" s="37"/>
       <c r="G70" s="37"/>
@@ -6483,7 +6506,7 @@
         <v>119</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F71" s="37"/>
       <c r="G71" s="37"/>
@@ -6520,7 +6543,7 @@
         <v>120</v>
       </c>
       <c r="E72" s="43" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F72" s="37"/>
       <c r="G72" s="37"/>
@@ -6594,7 +6617,7 @@
         <v>123</v>
       </c>
       <c r="E74" s="43" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F74" s="37"/>
       <c r="G74" s="37"/>
@@ -6631,7 +6654,7 @@
         <v>124</v>
       </c>
       <c r="E75" s="43" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F75" s="37"/>
       <c r="G75" s="37"/>
@@ -6668,7 +6691,7 @@
         <v>125</v>
       </c>
       <c r="E76" s="43" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F76" s="37"/>
       <c r="G76" s="37"/>
@@ -6742,7 +6765,7 @@
         <v>128</v>
       </c>
       <c r="E78" s="43" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F78" s="37"/>
       <c r="G78" s="37"/>
@@ -6779,7 +6802,7 @@
         <v>129</v>
       </c>
       <c r="E79" s="43" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F79" s="37"/>
       <c r="G79" s="37"/>
@@ -6816,7 +6839,7 @@
         <v>130</v>
       </c>
       <c r="E80" s="43" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
@@ -6890,7 +6913,7 @@
         <v>133</v>
       </c>
       <c r="E82" s="43" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F82" s="37"/>
       <c r="G82" s="37"/>
@@ -6927,7 +6950,7 @@
         <v>134</v>
       </c>
       <c r="E83" s="43" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F83" s="37"/>
       <c r="G83" s="37"/>
@@ -6964,7 +6987,7 @@
         <v>135</v>
       </c>
       <c r="E84" s="43" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F84" s="37"/>
       <c r="G84" s="37"/>
@@ -7001,7 +7024,7 @@
         <v>136</v>
       </c>
       <c r="E85" s="43" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F85" s="37"/>
       <c r="G85" s="37"/>
@@ -7038,7 +7061,7 @@
         <v>137</v>
       </c>
       <c r="E86" s="43" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F86" s="37"/>
       <c r="G86" s="37"/>
@@ -7075,7 +7098,7 @@
         <v>138</v>
       </c>
       <c r="E87" s="43" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
@@ -7112,7 +7135,7 @@
         <v>139</v>
       </c>
       <c r="E88" s="43" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="F88" s="37"/>
       <c r="G88" s="37"/>
@@ -7149,7 +7172,7 @@
         <v>140</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="F89" s="37"/>
       <c r="G89" s="37"/>
@@ -7186,7 +7209,7 @@
         <v>141</v>
       </c>
       <c r="E90" s="43" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
@@ -7223,7 +7246,7 @@
         <v>142</v>
       </c>
       <c r="E91" s="43" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F91" s="37"/>
       <c r="G91" s="37"/>
@@ -7260,7 +7283,7 @@
         <v>143</v>
       </c>
       <c r="E92" s="43" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="F92" s="37"/>
       <c r="G92" s="37"/>
@@ -7334,7 +7357,7 @@
         <v>146</v>
       </c>
       <c r="E94" s="43" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="F94" s="37"/>
       <c r="G94" s="37"/>
@@ -7482,7 +7505,7 @@
         <v>153</v>
       </c>
       <c r="E98" s="43" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="F98" s="37"/>
       <c r="G98" s="37"/>
@@ -7630,7 +7653,7 @@
         <v>160</v>
       </c>
       <c r="E102" s="43" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
@@ -7778,7 +7801,7 @@
         <v>167</v>
       </c>
       <c r="E106" s="43" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
@@ -7926,7 +7949,7 @@
         <v>174</v>
       </c>
       <c r="E110" s="43" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
@@ -8074,7 +8097,7 @@
         <v>181</v>
       </c>
       <c r="E114" s="43" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
@@ -8111,7 +8134,7 @@
         <v>182</v>
       </c>
       <c r="E115" s="43" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
@@ -8148,7 +8171,7 @@
         <v>183</v>
       </c>
       <c r="E116" s="43" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="F116" s="37"/>
       <c r="G116" s="37"/>
@@ -8185,7 +8208,7 @@
         <v>184</v>
       </c>
       <c r="E117" s="43" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="F117" s="37"/>
       <c r="G117" s="37"/>
@@ -8222,7 +8245,7 @@
         <v>185</v>
       </c>
       <c r="E118" s="43" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F118" s="37"/>
       <c r="G118" s="37"/>
@@ -8259,7 +8282,7 @@
         <v>186</v>
       </c>
       <c r="E119" s="43" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="F119" s="37"/>
       <c r="G119" s="37"/>
@@ -8370,7 +8393,7 @@
         <v>191</v>
       </c>
       <c r="E122" s="43" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F122" s="37"/>
       <c r="G122" s="37"/>
@@ -8407,7 +8430,7 @@
         <v>192</v>
       </c>
       <c r="E123" s="43" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F123" s="37"/>
       <c r="G123" s="37"/>
@@ -8444,7 +8467,7 @@
         <v>193</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F124" s="37"/>
       <c r="G124" s="37"/>
@@ -8481,7 +8504,7 @@
         <v>194</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F125" s="37"/>
       <c r="G125" s="37"/>
@@ -8518,7 +8541,7 @@
         <v>195</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
@@ -8555,7 +8578,7 @@
         <v>196</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
@@ -8592,7 +8615,7 @@
         <v>197</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F128" s="37"/>
       <c r="G128" s="37"/>
@@ -8629,7 +8652,7 @@
         <v>198</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F129" s="37"/>
       <c r="G129" s="37"/>
@@ -8666,7 +8689,7 @@
         <v>199</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F130" s="37"/>
       <c r="G130" s="37"/>
@@ -8689,7 +8712,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="35">
         <v>175</v>
       </c>
@@ -8700,23 +8723,23 @@
         <v>46</v>
       </c>
       <c r="D131" s="35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F131" s="37"/>
       <c r="G131" s="37"/>
       <c r="H131" s="37"/>
       <c r="I131" s="42"/>
       <c r="J131" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K131" s="38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L131" s="38" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="M131" s="38"/>
       <c r="N131" s="38"/>
@@ -8732,7 +8755,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="35">
         <v>177</v>
       </c>
@@ -8743,22 +8766,22 @@
         <v>46</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="F132" s="37">
         <v>45834</v>
       </c>
       <c r="G132" s="37" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="H132" s="37" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="I132" s="42" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="J132" s="38" t="s">
         <v>64</v>
@@ -8772,19 +8795,19 @@
         <v>64</v>
       </c>
       <c r="O132" s="38" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="P132" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q132" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="R132" s="38" t="s">
         <v>64</v>
       </c>
       <c r="S132" s="38" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="T132" s="38"/>
       <c r="U132" s="39"/>
@@ -8793,7 +8816,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="35">
         <v>178</v>
       </c>
@@ -8804,23 +8827,23 @@
         <v>46</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E133" s="43" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
       <c r="H133" s="37"/>
       <c r="I133" s="42"/>
       <c r="J133" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K133" s="38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L133" s="38" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="M133" s="38"/>
       <c r="N133" s="38"/>
@@ -8847,23 +8870,23 @@
         <v>46</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="F134" s="37"/>
       <c r="G134" s="37"/>
       <c r="H134" s="37"/>
       <c r="I134" s="42"/>
       <c r="J134" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K134" s="38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L134" s="38" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="M134" s="38"/>
       <c r="N134" s="38"/>
@@ -8890,23 +8913,23 @@
         <v>46</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
       <c r="H135" s="37"/>
       <c r="I135" s="42"/>
       <c r="J135" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K135" s="38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L135" s="38" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M135" s="38"/>
       <c r="N135" s="38"/>
@@ -8933,23 +8956,23 @@
         <v>46</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F136" s="37"/>
       <c r="G136" s="37"/>
       <c r="H136" s="37"/>
       <c r="I136" s="42"/>
       <c r="J136" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K136" s="38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L136" s="38" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="M136" s="38"/>
       <c r="N136" s="38"/>
@@ -8976,23 +8999,23 @@
         <v>46</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E137" s="43" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="F137" s="37"/>
       <c r="G137" s="37"/>
       <c r="H137" s="37"/>
       <c r="I137" s="42"/>
       <c r="J137" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K137" s="38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L137" s="38" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="M137" s="38"/>
       <c r="N137" s="38"/>
@@ -9019,23 +9042,23 @@
         <v>46</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E138" s="43" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="F138" s="37"/>
       <c r="G138" s="37"/>
       <c r="H138" s="37"/>
       <c r="I138" s="42"/>
       <c r="J138" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K138" s="38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L138" s="38" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="M138" s="38"/>
       <c r="N138" s="38"/>
@@ -9062,23 +9085,23 @@
         <v>46</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="F139" s="37"/>
       <c r="G139" s="37"/>
       <c r="H139" s="37"/>
       <c r="I139" s="42"/>
       <c r="J139" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K139" s="38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L139" s="38" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="M139" s="38"/>
       <c r="N139" s="38"/>
@@ -9105,23 +9128,23 @@
         <v>46</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E140" s="43" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F140" s="37"/>
       <c r="G140" s="37"/>
       <c r="H140" s="37"/>
       <c r="I140" s="42"/>
       <c r="J140" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K140" s="38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L140" s="38" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="M140" s="38"/>
       <c r="N140" s="38"/>
@@ -9148,23 +9171,23 @@
         <v>46</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="F141" s="37"/>
       <c r="G141" s="37"/>
       <c r="H141" s="37"/>
       <c r="I141" s="42"/>
       <c r="J141" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K141" s="38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L141" s="38" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="M141" s="38"/>
       <c r="N141" s="38"/>
@@ -9191,23 +9214,23 @@
         <v>46</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="F142" s="37"/>
       <c r="G142" s="37"/>
       <c r="H142" s="37"/>
       <c r="I142" s="42"/>
       <c r="J142" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K142" s="38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L142" s="38" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="M142" s="38"/>
       <c r="N142" s="38"/>
@@ -9234,23 +9257,23 @@
         <v>46</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E143" s="43" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="F143" s="37"/>
       <c r="G143" s="37"/>
       <c r="H143" s="37"/>
       <c r="I143" s="42"/>
       <c r="J143" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K143" s="38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L143" s="38" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="M143" s="38"/>
       <c r="N143" s="38"/>
@@ -9277,23 +9300,23 @@
         <v>46</v>
       </c>
       <c r="D144" s="35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E144" s="43" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="F144" s="37"/>
       <c r="G144" s="37"/>
       <c r="H144" s="37"/>
       <c r="I144" s="42"/>
       <c r="J144" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K144" s="38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L144" s="38" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="M144" s="38"/>
       <c r="N144" s="38"/>
@@ -9320,20 +9343,20 @@
         <v>46</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E145" s="43" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="F145" s="37"/>
       <c r="G145" s="37"/>
       <c r="H145" s="37"/>
       <c r="I145" s="42"/>
       <c r="J145" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K145" s="38" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L145" s="38"/>
       <c r="M145" s="38"/>
@@ -9361,10 +9384,10 @@
         <v>35</v>
       </c>
       <c r="D146" s="35" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F146" s="37"/>
       <c r="G146" s="37"/>
@@ -9398,10 +9421,10 @@
         <v>35</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F147" s="37"/>
       <c r="G147" s="37"/>
@@ -9432,13 +9455,13 @@
         <v>34</v>
       </c>
       <c r="C148" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D148" s="35" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F148" s="37"/>
       <c r="G148" s="37"/>
@@ -9469,13 +9492,13 @@
         <v>34</v>
       </c>
       <c r="C149" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F149" s="37"/>
       <c r="G149" s="37"/>
@@ -9506,13 +9529,13 @@
         <v>34</v>
       </c>
       <c r="C150" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
@@ -9543,10 +9566,10 @@
         <v>34</v>
       </c>
       <c r="C151" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D151" s="35" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E151" s="43" t="s">
         <v>43</v>
@@ -9580,10 +9603,10 @@
         <v>34</v>
       </c>
       <c r="C152" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E152" s="43" t="s">
         <v>55</v>
@@ -9617,13 +9640,13 @@
         <v>34</v>
       </c>
       <c r="C153" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D153" s="35" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>265</v>
+        <v>426</v>
       </c>
       <c r="F153" s="37"/>
       <c r="G153" s="37"/>
@@ -9654,13 +9677,13 @@
         <v>34</v>
       </c>
       <c r="C154" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D154" s="35" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F154" s="37"/>
       <c r="G154" s="37"/>
@@ -9691,13 +9714,13 @@
         <v>34</v>
       </c>
       <c r="C155" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F155" s="37"/>
       <c r="G155" s="37"/>
@@ -9728,13 +9751,13 @@
         <v>34</v>
       </c>
       <c r="C156" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="D156" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="D156" s="35" t="s">
-        <v>259</v>
-      </c>
       <c r="E156" s="43" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
@@ -9765,13 +9788,13 @@
         <v>34</v>
       </c>
       <c r="C157" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E157" s="43" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F157" s="37"/>
       <c r="G157" s="37"/>
@@ -9802,13 +9825,13 @@
         <v>34</v>
       </c>
       <c r="C158" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E158" s="43" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F158" s="37"/>
       <c r="G158" s="37"/>
@@ -9839,13 +9862,13 @@
         <v>34</v>
       </c>
       <c r="C159" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
@@ -9876,13 +9899,13 @@
         <v>34</v>
       </c>
       <c r="C160" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D160" s="35" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E160" s="43" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F160" s="37"/>
       <c r="G160" s="37"/>
@@ -9913,13 +9936,13 @@
         <v>34</v>
       </c>
       <c r="C161" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E161" s="43" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F161" s="37"/>
       <c r="G161" s="37"/>
@@ -9950,13 +9973,13 @@
         <v>34</v>
       </c>
       <c r="C162" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D162" s="35" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E162" s="43" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F162" s="37"/>
       <c r="G162" s="37"/>
@@ -9987,13 +10010,13 @@
         <v>34</v>
       </c>
       <c r="C163" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E163" s="43" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F163" s="37"/>
       <c r="G163" s="37"/>
@@ -10016,37 +10039,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="164" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="35">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B164" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C164" s="41" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>200</v>
+        <v>377</v>
       </c>
       <c r="E164" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="F164" s="37">
-        <v>45834</v>
-      </c>
-      <c r="G164" s="37" t="s">
-        <v>463</v>
-      </c>
-      <c r="H164" s="37" t="s">
-        <v>464</v>
-      </c>
-      <c r="I164" s="42" t="s">
-        <v>465</v>
-      </c>
-      <c r="J164" s="38" t="s">
-        <v>64</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="F164" s="37"/>
+      <c r="G164" s="37"/>
+      <c r="H164" s="37"/>
+      <c r="I164" s="42"/>
+      <c r="J164" s="38"/>
       <c r="K164" s="38"/>
       <c r="L164" s="38"/>
       <c r="M164" s="38"/>
@@ -10056,46 +10069,34 @@
       <c r="Q164" s="38"/>
       <c r="R164" s="38"/>
       <c r="S164" s="38"/>
-      <c r="T164" s="38" t="s">
-        <v>226</v>
-      </c>
+      <c r="T164" s="38"/>
       <c r="U164" s="39"/>
       <c r="V164" s="40"/>
       <c r="W164" s="38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="35">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B165" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C165" s="41" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>201</v>
+        <v>378</v>
       </c>
       <c r="E165" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="F165" s="37">
-        <v>45834</v>
-      </c>
-      <c r="G165" s="37" t="s">
-        <v>468</v>
-      </c>
-      <c r="H165" s="37" t="s">
-        <v>467</v>
-      </c>
-      <c r="I165" s="42" t="s">
-        <v>466</v>
-      </c>
-      <c r="J165" s="38" t="s">
-        <v>64</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="F165" s="37"/>
+      <c r="G165" s="37"/>
+      <c r="H165" s="37"/>
+      <c r="I165" s="42"/>
+      <c r="J165" s="38"/>
       <c r="K165" s="38"/>
       <c r="L165" s="38"/>
       <c r="M165" s="38"/>
@@ -10105,9 +10106,7 @@
       <c r="Q165" s="38"/>
       <c r="R165" s="38"/>
       <c r="S165" s="38"/>
-      <c r="T165" s="38" t="s">
-        <v>226</v>
-      </c>
+      <c r="T165" s="38"/>
       <c r="U165" s="39"/>
       <c r="V165" s="40"/>
       <c r="W165" s="38" t="s">
@@ -10116,19 +10115,19 @@
     </row>
     <row r="166" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="35">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B166" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C166" s="41" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="E166" s="43" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="F166" s="37"/>
       <c r="G166" s="37"/>
@@ -10153,19 +10152,19 @@
     </row>
     <row r="167" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="35">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B167" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C167" s="41" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="E167" s="43" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="F167" s="37"/>
       <c r="G167" s="37"/>
@@ -10190,19 +10189,19 @@
     </row>
     <row r="168" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="35">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B168" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C168" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="E168" s="43" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="F168" s="37"/>
       <c r="G168" s="37"/>
@@ -10225,21 +10224,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="35">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B169" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C169" s="41" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D169" s="35" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E169" s="43" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F169" s="37"/>
       <c r="G169" s="37"/>
@@ -10262,21 +10261,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="35">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B170" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C170" s="41" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D170" s="35" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E170" s="43" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="F170" s="37"/>
       <c r="G170" s="37"/>
@@ -10301,19 +10300,19 @@
     </row>
     <row r="171" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="35">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B171" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C171" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="E171" s="43" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="F171" s="37"/>
       <c r="G171" s="37"/>
@@ -10336,21 +10335,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="35">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B172" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C172" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D172" s="35" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="E172" s="43" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="F172" s="37"/>
       <c r="G172" s="37"/>
@@ -10373,21 +10372,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="35">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B173" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C173" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D173" s="35" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="E173" s="43" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="F173" s="37"/>
       <c r="G173" s="37"/>
@@ -10410,21 +10409,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="35">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B174" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C174" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D174" s="35" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="E174" s="43" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="F174" s="37"/>
       <c r="G174" s="37"/>
@@ -10447,21 +10446,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="35">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B175" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C175" s="41" t="s">
-        <v>39</v>
+        <v>241</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="E175" s="43" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="F175" s="37"/>
       <c r="G175" s="37"/>
@@ -10486,93 +10485,93 @@
     </row>
     <row r="176" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="35">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B176" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C176" s="41" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D176" s="35" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="E176" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="F176" s="37"/>
-      <c r="G176" s="37"/>
-      <c r="H176" s="37"/>
-      <c r="I176" s="42"/>
+        <v>381</v>
+      </c>
+      <c r="F176" s="35"/>
+      <c r="G176" s="35"/>
+      <c r="H176" s="35"/>
+      <c r="I176" s="35"/>
       <c r="J176" s="38"/>
       <c r="K176" s="38"/>
-      <c r="L176" s="38"/>
+      <c r="L176" s="35"/>
       <c r="M176" s="38"/>
       <c r="N176" s="38"/>
-      <c r="O176" s="38"/>
+      <c r="O176" s="35"/>
       <c r="P176" s="38"/>
       <c r="Q176" s="38"/>
       <c r="R176" s="38"/>
-      <c r="S176" s="38"/>
+      <c r="S176" s="35"/>
       <c r="T176" s="38"/>
-      <c r="U176" s="39"/>
-      <c r="V176" s="40"/>
-      <c r="W176" s="38" t="s">
-        <v>36</v>
+      <c r="U176" s="35"/>
+      <c r="V176" s="35"/>
+      <c r="W176" s="35" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="35">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B177" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C177" s="41" t="s">
-        <v>250</v>
+        <v>38</v>
       </c>
       <c r="D177" s="35" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="E177" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="F177" s="37"/>
-      <c r="G177" s="37"/>
-      <c r="H177" s="37"/>
-      <c r="I177" s="42"/>
+        <v>386</v>
+      </c>
+      <c r="F177" s="35"/>
+      <c r="G177" s="35"/>
+      <c r="H177" s="35"/>
+      <c r="I177" s="35"/>
       <c r="J177" s="38"/>
       <c r="K177" s="38"/>
-      <c r="L177" s="38"/>
+      <c r="L177" s="35"/>
       <c r="M177" s="38"/>
       <c r="N177" s="38"/>
-      <c r="O177" s="38"/>
+      <c r="O177" s="35"/>
       <c r="P177" s="38"/>
       <c r="Q177" s="38"/>
       <c r="R177" s="38"/>
-      <c r="S177" s="38"/>
+      <c r="S177" s="35"/>
       <c r="T177" s="38"/>
-      <c r="U177" s="39"/>
-      <c r="V177" s="40"/>
-      <c r="W177" s="38" t="s">
-        <v>36</v>
+      <c r="U177" s="35"/>
+      <c r="V177" s="35"/>
+      <c r="W177" s="35" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="178" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="35">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B178" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C178" s="41" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D178" s="35" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E178" s="43" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F178" s="35"/>
       <c r="G178" s="35"/>
@@ -10597,19 +10596,19 @@
     </row>
     <row r="179" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="35">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B179" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C179" s="41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D179" s="35" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E179" s="43" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F179" s="35"/>
       <c r="G179" s="35"/>
@@ -10634,19 +10633,19 @@
     </row>
     <row r="180" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="35">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B180" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C180" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D180" s="35" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E180" s="43" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F180" s="35"/>
       <c r="G180" s="35"/>
@@ -10671,19 +10670,19 @@
     </row>
     <row r="181" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="35">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B181" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C181" s="41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D181" s="35" t="s">
-        <v>399</v>
-      </c>
-      <c r="E181" s="43" t="s">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="E181" s="44" t="s">
+        <v>408</v>
       </c>
       <c r="F181" s="35"/>
       <c r="G181" s="35"/>
@@ -10708,19 +10707,19 @@
     </row>
     <row r="182" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="35">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B182" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C182" s="41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D182" s="35" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E182" s="43" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F182" s="35"/>
       <c r="G182" s="35"/>
@@ -10745,19 +10744,19 @@
     </row>
     <row r="183" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="35">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B183" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C183" s="41" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D183" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="E183" s="44" t="s">
-        <v>418</v>
+        <v>395</v>
+      </c>
+      <c r="E183" s="43" t="s">
+        <v>396</v>
       </c>
       <c r="F183" s="35"/>
       <c r="G183" s="35"/>
@@ -10780,28 +10779,32 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="35">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B184" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C184" s="41" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D184" s="35" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E184" s="43" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F184" s="35"/>
       <c r="G184" s="35"/>
       <c r="H184" s="35"/>
       <c r="I184" s="35"/>
-      <c r="J184" s="38"/>
-      <c r="K184" s="38"/>
+      <c r="J184" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K184" s="38" t="s">
+        <v>233</v>
+      </c>
       <c r="L184" s="35"/>
       <c r="M184" s="38"/>
       <c r="N184" s="38"/>
@@ -10819,19 +10822,19 @@
     </row>
     <row r="185" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="35">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B185" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C185" s="41" t="s">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="D185" s="35" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E185" s="43" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F185" s="35"/>
       <c r="G185" s="35"/>
@@ -10854,99 +10857,95 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="35">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B186" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C186" s="41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D186" s="35" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E186" s="43" t="s">
-        <v>408</v>
-      </c>
-      <c r="F186" s="35"/>
-      <c r="G186" s="35"/>
-      <c r="H186" s="35"/>
-      <c r="I186" s="35"/>
-      <c r="J186" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="K186" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="L186" s="35"/>
+        <v>410</v>
+      </c>
+      <c r="F186" s="37"/>
+      <c r="G186" s="37"/>
+      <c r="H186" s="37"/>
+      <c r="I186" s="42"/>
+      <c r="J186" s="38"/>
+      <c r="K186" s="38"/>
+      <c r="L186" s="38"/>
       <c r="M186" s="38"/>
       <c r="N186" s="38"/>
-      <c r="O186" s="35"/>
+      <c r="O186" s="38"/>
       <c r="P186" s="38"/>
       <c r="Q186" s="38"/>
       <c r="R186" s="38"/>
-      <c r="S186" s="35"/>
+      <c r="S186" s="38"/>
       <c r="T186" s="38"/>
-      <c r="U186" s="35"/>
-      <c r="V186" s="35"/>
-      <c r="W186" s="35" t="s">
-        <v>44</v>
+      <c r="U186" s="39"/>
+      <c r="V186" s="40"/>
+      <c r="W186" s="38" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="35">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B187" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C187" s="41" t="s">
-        <v>250</v>
+        <v>38</v>
       </c>
       <c r="D187" s="35" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E187" s="43" t="s">
-        <v>410</v>
-      </c>
-      <c r="F187" s="35"/>
-      <c r="G187" s="35"/>
-      <c r="H187" s="35"/>
-      <c r="I187" s="35"/>
+        <v>414</v>
+      </c>
+      <c r="F187" s="37"/>
+      <c r="G187" s="37"/>
+      <c r="H187" s="37"/>
+      <c r="I187" s="42"/>
       <c r="J187" s="38"/>
       <c r="K187" s="38"/>
-      <c r="L187" s="35"/>
+      <c r="L187" s="38"/>
       <c r="M187" s="38"/>
       <c r="N187" s="38"/>
-      <c r="O187" s="35"/>
+      <c r="O187" s="38"/>
       <c r="P187" s="38"/>
       <c r="Q187" s="38"/>
       <c r="R187" s="38"/>
-      <c r="S187" s="35"/>
+      <c r="S187" s="38"/>
       <c r="T187" s="38"/>
-      <c r="U187" s="35"/>
-      <c r="V187" s="35"/>
-      <c r="W187" s="35" t="s">
-        <v>44</v>
+      <c r="U187" s="39"/>
+      <c r="V187" s="40"/>
+      <c r="W187" s="38" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="35">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B188" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C188" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D188" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D188" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="E188" s="43" t="s">
         <v>419</v>
-      </c>
-      <c r="E188" s="43" t="s">
-        <v>420</v>
       </c>
       <c r="F188" s="37"/>
       <c r="G188" s="37"/>
@@ -10966,12 +10965,12 @@
       <c r="U188" s="39"/>
       <c r="V188" s="40"/>
       <c r="W188" s="38" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="35">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B189" s="35" t="s">
         <v>34</v>
@@ -10980,10 +10979,10 @@
         <v>38</v>
       </c>
       <c r="D189" s="35" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E189" s="43" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F189" s="37"/>
       <c r="G189" s="37"/>
@@ -11003,24 +11002,24 @@
       <c r="U189" s="39"/>
       <c r="V189" s="40"/>
       <c r="W189" s="38" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="35">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B190" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C190" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D190" s="41" t="s">
-        <v>429</v>
+        <v>49</v>
+      </c>
+      <c r="D190" s="35" t="s">
+        <v>416</v>
       </c>
       <c r="E190" s="43" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="F190" s="37"/>
       <c r="G190" s="37"/>
@@ -11043,27 +11042,37 @@
         <v>44</v>
       </c>
     </row>
-    <row r="191" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:23" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="35">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B191" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C191" s="41" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D191" s="35" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E191" s="43" t="s">
-        <v>432</v>
-      </c>
-      <c r="F191" s="37"/>
-      <c r="G191" s="37"/>
-      <c r="H191" s="37"/>
-      <c r="I191" s="42"/>
-      <c r="J191" s="38"/>
+        <v>433</v>
+      </c>
+      <c r="F191" s="37">
+        <v>45834</v>
+      </c>
+      <c r="G191" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="H191" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="I191" s="42" t="s">
+        <v>463</v>
+      </c>
+      <c r="J191" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K191" s="38"/>
       <c r="L191" s="38"/>
       <c r="M191" s="38"/>
@@ -11073,34 +11082,46 @@
       <c r="Q191" s="38"/>
       <c r="R191" s="38"/>
       <c r="S191" s="38"/>
-      <c r="T191" s="38"/>
+      <c r="T191" s="38" t="s">
+        <v>224</v>
+      </c>
       <c r="U191" s="39"/>
       <c r="V191" s="40"/>
       <c r="W191" s="38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="192" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="35">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B192" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C192" s="41" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D192" s="35" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E192" s="43" t="s">
-        <v>433</v>
-      </c>
-      <c r="F192" s="37"/>
-      <c r="G192" s="37"/>
-      <c r="H192" s="37"/>
-      <c r="I192" s="42"/>
-      <c r="J192" s="38"/>
+        <v>434</v>
+      </c>
+      <c r="F192" s="37">
+        <v>45834</v>
+      </c>
+      <c r="G192" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="H192" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="I192" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="J192" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K192" s="38"/>
       <c r="L192" s="38"/>
       <c r="M192" s="38"/>
@@ -11110,34 +11131,65 @@
       <c r="Q192" s="38"/>
       <c r="R192" s="38"/>
       <c r="S192" s="38"/>
-      <c r="T192" s="38"/>
+      <c r="T192" s="38" t="s">
+        <v>224</v>
+      </c>
       <c r="U192" s="39"/>
       <c r="V192" s="40"/>
       <c r="W192" s="38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="193" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F193" s="6"/>
-      <c r="G193" s="6"/>
-      <c r="H193" s="6"/>
-      <c r="I193" s="6"/>
-      <c r="J193" s="7"/>
-      <c r="K193" s="7"/>
-      <c r="L193" s="7"/>
-      <c r="M193" s="7"/>
-      <c r="N193" s="7"/>
-      <c r="O193" s="7"/>
-      <c r="P193" s="7"/>
-      <c r="Q193" s="7"/>
-      <c r="R193" s="7"/>
-      <c r="S193" s="7"/>
-      <c r="T193" s="7"/>
-      <c r="U193" s="8"/>
-      <c r="V193" s="2"/>
-      <c r="W193" s="9"/>
-    </row>
-    <row r="194" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="35">
+        <v>478</v>
+      </c>
+      <c r="B193" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C193" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D193" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="E193" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="F193" s="37">
+        <v>46021</v>
+      </c>
+      <c r="G193" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="H193" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="I193" s="42" t="s">
+        <v>469</v>
+      </c>
+      <c r="J193" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="K193" s="38"/>
+      <c r="L193" s="38"/>
+      <c r="M193" s="38"/>
+      <c r="N193" s="38"/>
+      <c r="O193" s="38"/>
+      <c r="P193" s="38"/>
+      <c r="Q193" s="38"/>
+      <c r="R193" s="38"/>
+      <c r="S193" s="38"/>
+      <c r="T193" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="U193" s="39"/>
+      <c r="V193" s="40"/>
+      <c r="W193" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
       <c r="H194" s="6"/>
@@ -11157,7 +11209,7 @@
       <c r="V194" s="2"/>
       <c r="W194" s="9"/>
     </row>
-    <row r="195" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
       <c r="H195" s="6"/>
@@ -11177,7 +11229,7 @@
       <c r="V195" s="2"/>
       <c r="W195" s="9"/>
     </row>
-    <row r="196" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
       <c r="H196" s="6"/>
@@ -11197,7 +11249,7 @@
       <c r="V196" s="2"/>
       <c r="W196" s="9"/>
     </row>
-    <row r="197" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
       <c r="H197" s="6"/>
@@ -11217,7 +11269,7 @@
       <c r="V197" s="2"/>
       <c r="W197" s="9"/>
     </row>
-    <row r="198" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
       <c r="H198" s="6"/>
@@ -11237,7 +11289,7 @@
       <c r="V198" s="2"/>
       <c r="W198" s="9"/>
     </row>
-    <row r="199" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
       <c r="H199" s="6"/>
@@ -11257,7 +11309,7 @@
       <c r="V199" s="2"/>
       <c r="W199" s="9"/>
     </row>
-    <row r="200" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
       <c r="H200" s="6"/>
@@ -11277,7 +11329,7 @@
       <c r="V200" s="2"/>
       <c r="W200" s="9"/>
     </row>
-    <row r="201" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
       <c r="H201" s="6"/>
@@ -11297,7 +11349,7 @@
       <c r="V201" s="2"/>
       <c r="W201" s="9"/>
     </row>
-    <row r="202" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
       <c r="H202" s="6"/>
@@ -11317,7 +11369,7 @@
       <c r="V202" s="2"/>
       <c r="W202" s="9"/>
     </row>
-    <row r="203" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
       <c r="H203" s="6"/>
@@ -11337,7 +11389,7 @@
       <c r="V203" s="2"/>
       <c r="W203" s="9"/>
     </row>
-    <row r="204" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
       <c r="H204" s="6"/>
@@ -11357,7 +11409,7 @@
       <c r="V204" s="2"/>
       <c r="W204" s="9"/>
     </row>
-    <row r="205" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
       <c r="H205" s="6"/>
@@ -11377,7 +11429,7 @@
       <c r="V205" s="2"/>
       <c r="W205" s="9"/>
     </row>
-    <row r="206" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
       <c r="H206" s="6"/>
@@ -11397,7 +11449,7 @@
       <c r="V206" s="2"/>
       <c r="W206" s="9"/>
     </row>
-    <row r="207" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
       <c r="H207" s="6"/>
@@ -11417,7 +11469,7 @@
       <c r="V207" s="2"/>
       <c r="W207" s="9"/>
     </row>
-    <row r="208" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
       <c r="H208" s="6"/>
@@ -13838,44 +13890,10 @@
       <c r="W328" s="9"/>
     </row>
     <row r="329" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F329" s="6"/>
-      <c r="G329" s="6"/>
-      <c r="H329" s="6"/>
-      <c r="I329" s="6"/>
-      <c r="J329" s="7"/>
-      <c r="K329" s="7"/>
-      <c r="L329" s="7"/>
-      <c r="M329" s="7"/>
-      <c r="N329" s="7"/>
-      <c r="O329" s="7"/>
-      <c r="P329" s="7"/>
-      <c r="Q329" s="7"/>
-      <c r="R329" s="7"/>
-      <c r="S329" s="7"/>
-      <c r="T329" s="7"/>
-      <c r="U329" s="8"/>
-      <c r="V329" s="2"/>
-      <c r="W329" s="9"/>
+      <c r="W329" s="7"/>
     </row>
     <row r="330" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F330" s="6"/>
-      <c r="G330" s="6"/>
-      <c r="H330" s="6"/>
-      <c r="I330" s="6"/>
-      <c r="J330" s="7"/>
-      <c r="K330" s="7"/>
-      <c r="L330" s="7"/>
-      <c r="M330" s="7"/>
-      <c r="N330" s="7"/>
-      <c r="O330" s="7"/>
-      <c r="P330" s="7"/>
-      <c r="Q330" s="7"/>
-      <c r="R330" s="7"/>
-      <c r="S330" s="7"/>
-      <c r="T330" s="7"/>
-      <c r="U330" s="8"/>
-      <c r="V330" s="2"/>
-      <c r="W330" s="9"/>
+      <c r="W330" s="7"/>
     </row>
     <row r="331" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W331" s="7"/>
@@ -15122,19 +15140,13 @@
     <row r="745" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W745" s="7"/>
     </row>
-    <row r="746" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W746" s="7"/>
-    </row>
-    <row r="747" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W747" s="7"/>
-    </row>
+    <row r="746" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="748" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="749" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="750" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A9:W192" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <autoFilter ref="A9:W193" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="PSS"/>
@@ -15161,19 +15173,19 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>P10:R192 J10:J192 M10:N192</xm:sqref>
+          <xm:sqref>P193:R193 M193:N193 P10:R132 J10:J132 M10:N132 J146:J183 M146:N183 P146:R183 P185:R190 J185:J190 M185:N190 J193</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>T10:T192</xm:sqref>
+          <xm:sqref>T10:T132 T146:T183 T185:T190 T193</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3DE61C5E-9DA3-4CE3-A1FF-8FBE651EA6B5}">
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K192</xm:sqref>
+          <xm:sqref>K10:K132 K146:K183 K185:K190 K193</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15193,42 +15205,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -15242,7 +15254,7 @@
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15258,22 +15270,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15281,13 +15293,13 @@
         <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15295,13 +15307,13 @@
         <v>37</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15309,13 +15321,13 @@
         <v>38</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15323,13 +15335,13 @@
         <v>39</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15337,13 +15349,13 @@
         <v>40</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -15351,13 +15363,13 @@
         <v>41</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -15365,13 +15377,13 @@
         <v>49</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -15379,41 +15391,41 @@
         <v>46</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>242</v>
+        <v>436</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>223</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16399,7 +16411,7 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>64</v>
@@ -16407,10 +16419,10 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17424,31 +17436,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
-    <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <xsd:import namespace="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
+    <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -17457,21 +17447,8 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:UserStoryALM" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -17479,7 +17456,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1e76d14e-d0ce-457c-8343-9b55836d9ead" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="295b7897-c886-40bf-9750-5782b814c3e4" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -17492,114 +17469,14 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="18" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6d165d17-9b79-46c3-82b9-c927e733c429" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="23" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="UserStoryALM" ma:index="25" nillable="true" ma:displayName="UserStory ALM" ma:format="Dropdown" ma:internalName="UserStoryALM">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="137048 - Stesura checklist RAP"/>
-          <xsd:enumeration value="137049 - Sviluppo testcase RAP"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a56712a3-8dfd-4688-917a-22f0cf513b89" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="19" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c488629b-a647-4465-8bb2-a216a95770f0}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a56712a3-8dfd-4688-917a-22f0cf513b89">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="20" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="21" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -17702,7 +17579,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17719,33 +17637,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/S1#111#FRAMESRLXX/FRAMESRL/GOMED-PEDIATOTEM/1.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111#FRAMESRLXX/FRAMESRL/GOMED-PEDIATOTEM/1.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cicci\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DC9659-A37F-4F05-89B5-7063D689FDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BACD314-BAA4-45CE-8F14-FC77A1FB3A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3736,10 +3736,10 @@
   <dimension ref="A1:W750"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A184" sqref="A184"/>
-      <selection pane="bottomRight" activeCell="J195" sqref="J195"/>
+      <selection pane="bottomRight" activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8610,9 +8610,7 @@
       <c r="E132" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="F132" s="28">
-        <v>45834</v>
-      </c>
+      <c r="F132" s="28"/>
       <c r="G132" s="28"/>
       <c r="H132" s="28"/>
       <c r="I132" s="34"/>
